--- a/docs/5u24/doc/_downloads/nablarch5u22-releasenote.xlsx
+++ b/docs/5u24/doc/_downloads/nablarch5u22-releasenote.xlsx
@@ -4,53 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4B7658-08BB-46B6-8F9C-E1053C332342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670011BD-CD27-4D63-9FE9-B68C734F9C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="28770" windowHeight="15570" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u22" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId3"/>
+    <sheet name="5u22" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u22'!$A$5:$N$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u22'!$A$1:$N$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u22'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u22'!$A$1:$N$25</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u22'!$A$1:$M$25</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u22'!$C$6:$M$25</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u22'!$A$1:$N$25</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$E$1:$E$25</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$E$1:$E$25</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u22'!$A$1:$N$25</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$E$1:$E$25</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$E$1:$E$25</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u22'!$A$1:$N$25</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u22'!$C$6:$M$25</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u22'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u22'!$A$6:$N$25</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u22'!$A$1:$N$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u22'!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="224">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -95,237 +42,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リリース
@@ -333,14 +64,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -350,7 +81,7 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-</t>
@@ -363,14 +94,14 @@
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ETL基盤</t>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch開発標準</t>
@@ -380,7 +111,7 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Example</t>
@@ -388,15 +119,15 @@
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -407,7 +138,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>システムへの
@@ -419,7 +150,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -435,14 +166,14 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アダプタ</t>
@@ -450,19 +181,19 @@
   </si>
   <si>
     <t>モジュール</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ブランクプロジェクト</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch実装例集</t>
@@ -475,64 +206,64 @@
     <rPh sb="11" eb="12">
       <t>シュウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>開発プロセス支援ツール</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>不具合の起因バージョン
 （※2）</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u13</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■Nablarch 5u22 リリースノート</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u21からの変更点を記載しています。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>汎用データフォーマット</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-461</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-core-dataformat 1.3.2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1.1.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ロガー名が適切に設定されていない問題に対応</t>
@@ -542,7 +273,7 @@
     <rPh sb="19" eb="21">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ロガー名が適切に設定されていないクラスがあり、意図しないロガー設定が適用される問題がありました。
@@ -603,22 +334,22 @@
     <rPh sb="309" eb="311">
       <t>カイショウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/libraries/log.html#log-basic-setting</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>RESTfulウェブサービス</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>責務配置にDTOを追加</t>
@@ -631,19 +362,19 @@
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>なし</t>
   </si>
   <si>
     <t>NAB-462</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>JIRA issue
 (※4)</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>取引単体テスト</t>
@@ -653,22 +384,22 @@
     <rPh sb="2" eb="4">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-457</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-testing 1.4.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>同期応答メッセージ送信処理を伴う取引単体テストを実行した際、電文内容をログに出力していますが、日本語が文字化けしてしまうケースがありました。
 ・要求電文のtext-encodingがUTF-8で、データに日本語が含まれており、CSV形式のログを出力した場合
 ・応答電文のデータに日本語が含まれている場合
 これらの場合でも日本語が文字化けせずログに出力されるように対応しました。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログ出力時の日本語文字化けに対応</t>
@@ -687,11 +418,11 @@
     <rPh sb="14" eb="16">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarchバッチ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>DBに接続しないケースのブランクプロジェクトを追加</t>
@@ -701,29 +432,29 @@
     <rPh sb="23" eb="25">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-464</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>jackson-databindのバージョンアップ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">RESTfulウェブサービスプロジェクト
 コンテナ用RESTfulウェブサービスプロジェクト
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-500</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>JAX-RSアダプタ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>jackson-databindのバージョンアップ</t>
@@ -732,7 +463,7 @@
     <t>nablarch-jackson-adaptor 1.0.8
 nablarch-jersey-adaptor 1.0.7
 nablarch-resteasy-adaptor 1.0.8</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>RESTfulウェブサービス向け単体テストフレームワーク</t>
@@ -742,46 +473,46 @@
     <rPh sb="16" eb="18">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-testing-rest 1.1.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ETL基盤</t>
     <rPh sb="3" eb="5">
       <t>キバン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-etl 1.2.5</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HTTPメッセージング</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-jaxrs 5u22
 nablarch-container-jaxrs 5u22</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-example-http-messaging 5u22</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>バッチ開発補助</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ShellCheck対応</t>
     <rPh sb="10" eb="12">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ファイル受信バッチの不具合修正</t>
@@ -791,34 +522,34 @@
     <rPh sb="10" eb="15">
       <t>フグアイシュウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Shell Script自動生成ツールが生成するシェルスクリプトやscripts.zipに含まれるシェルスクリプトについて、ShellCheckによる警告が出ないように修正しました。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-491</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>あり(本番)</t>
     <rPh sb="3" eb="5">
       <t>ホンバン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Shell Script自動生成ツールのファイル受信バッチについて、授受先ディレクトリが存在しなかった場合の戻り値がDescriptionやログでは113を返却すると記載されているが、実際は112を返していた不具合を修正しました。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新しいバージョンのShell Script自動生成ツールでファイル受信バッチの起動スクリプトを出力しなおし、稼働中の環境のスクリプトと置き換えた場合に影響があります。
@@ -905,7 +636,7 @@
     <rPh sb="213" eb="215">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">Nablarchバッチのブランクプロジェクトとして、DBに接続しないケースで使用するブランクプロジェクトを追加しました。
@@ -973,7 +704,7 @@
     <rPh sb="365" eb="367">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-batch-dbless 5u22
@@ -982,35 +713,35 @@
 nablarch-main-default-configuration 1.4.1
 nablarch-testing 1.4.1
 nablarch-test-default-configuration 1.2.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>認可チェック</t>
     <rPh sb="0" eb="2">
       <t>ニンカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-common-auth 1.2.0
 nablarch-common-auth-session 1.0.0
 nablarch-main-default-configuration 1.4.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/libraries/authorization/role_check.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-506</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>実装例集</t>
@@ -1020,69 +751,69 @@
     <rPh sb="3" eb="4">
       <t>シュウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-509</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/examples/12/index.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ウェブアプリケーションとRESTfulウェブサービスの併用</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-511</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/web/feature_details/web_front_controller.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-example-web 5u22</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.11.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Webフロントコントローラのコンポーネント名を動的に取得するように変更</t>
     <rPh sb="33" eb="35">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Webフロントコントローラのコンポーネント名を動的に取得するように変更</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ファイルダウンロード機能の作成</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/web/getting_started/project_download/index.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-513</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>1.5.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>半角スペースを含む名前のファイルをダウンロードする場合にファイル名が切れる問題に対応</t>
@@ -1095,33 +826,33 @@
     <rPh sb="40" eb="42">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ユニバーサルDAO</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-common-dao 1.7.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-514</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ユニバーサルDAOでNoDataExceptionを出さないメソッドを追加</t>
     <rPh sb="35" eb="37">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>不具合</t>
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>半角スペースを含んだ名前のファイルをダウンロードするアプリケーションに影響があります。
@@ -1159,7 +890,7 @@
     <rPh sb="151" eb="152">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ウェブアプリケーションのサンプルにおいて、ウェブアプリケーションとRESTfulウェブサービスを併用するためにWebフロントコントローラをシステムリポジトリから取得する独自のサーブレットフィルタを実装していましたが、No.3の変更により、必要なくなったため削除しました。</t>
@@ -1181,18 +912,18 @@
     <rPh sb="128" eb="130">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>全ブランクプロジェクト</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>H2のバージョンアップ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-web 5u22
@@ -1202,18 +933,18 @@
 nablarch-container-web 5u22
 nablarch-container-jaxrs 5u22
 nablarch-container-batch 5u22</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-439</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>全Example</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-example-web 5u22
@@ -1228,15 +959,15 @@
 nablarch-example-mom-delayed-receive 5u22
 nablarch-example-mom-sync-receive 5u22
 nablarch-example-db-queue 5u22</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-biz-sample-all 2.0.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>マルチパートリクエストハンドラ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アップロードファイル数に上限を設定できる機能を追加</t>
@@ -1255,46 +986,46 @@
     <rPh sb="23" eb="25">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-517</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>実装例集</t>
     <rPh sb="0" eb="4">
       <t>ジッソウレイシュウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch5対応</t>
     <rPh sb="9" eb="11">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-biz-sample-all 2.0.0
 nablarch-smime-integration 1.2.0
 nablarch-statistics-report 1.2.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/examples/index.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-507</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>日付ローテーション</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u22に書き換える</t>
@@ -1307,7 +1038,7 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u13 リリースノート No.4 の 「Content-Dispositionにfilename*パラメーターを出力するように変更」 により半角スペースを含む名前のファイルをダウンロードする場合にファイル名が切れる不具合が発生していました。
@@ -1340,14 +1071,14 @@
     <rPh sb="149" eb="150">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログ出力</t>
     <rPh sb="2" eb="4">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ユニバーサルDAOの1件取得API（findById、findBySqlFile）は、データがなかった場合NoDataExceptionをスローします。
@@ -1386,14 +1117,14 @@
     <rPh sb="255" eb="257">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>jackson-databind 2.10.5.1に複数の脆弱性があったため、ブランクプロジェクトのjackson-databindを脆弱性対応済みのバージョン(2.12.7.1)に変更しました。</t>
     <rPh sb="26" eb="28">
       <t>フクスウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ブランクプロジェクトには疎通確認用にH2 databaseが設定されていました。このH2のバージョンが古く(1.3.176)複数の脆弱性があったため、最新バージョン(2.1.214)に変更しました。</t>
@@ -1424,7 +1155,7 @@
     <rPh sb="92" eb="94">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>実装例集はNablarch1.4系の時代に作成され、メンテナンスされていませんでした。そのため、5系で動かす際にはカスタマイズの要否を判断する必要がありました。この問題を解消するため、5系を前提としたサンプルに修正しました。
@@ -1468,18 +1199,18 @@
     <rPh sb="121" eb="123">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>OpenID Connect（OIDC）のIDトークンを用いた認証サンプルを追加</t>
     <rPh sb="38" eb="40">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-development-standards-tools 1.2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アノテーションによる認可チェックを追加</t>
@@ -1489,7 +1220,7 @@
     <rPh sb="17" eb="19">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>従来の認可チェックは権限をきめ細やかに管理できる反面、データ管理が煩雑で導入コストが高いという特徴があります。このため権限管理を手早く導入したいというプロジェクトには適合せず、そういったプロジェクトでは認可チェックの仕組みを独自に作りこまなければならないという課題がありました。
@@ -1576,19 +1307,19 @@
     <rPh sb="191" eb="193">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/javadoc/nablarch/common/dao/UniversalDao.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-core-applog 1.4.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-515</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarchのログ出力では、ファイルサイズによってローテーションを行う機能を提供してきました。
@@ -1635,7 +1366,7 @@
     <rPh sb="94" eb="97">
       <t>サンショウサキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>これまでのマルチパートリクエストハンドラでは、アップロードファイルのサイズの上限は設定することができましたが、ファイル数の上限は設定できませんでした。
@@ -1683,11 +1414,11 @@
     <rPh sb="165" eb="167">
       <t>チュウダン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/web_service/rest/application_design.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>昨今、ユーザーの認証や管理には外部の認証基盤を利用することが多くなっています。
@@ -1722,7 +1453,7 @@
     <rPh sb="100" eb="104">
       <t>ニンショウキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■シェルスクリプト自動生成ツールのバージョンアップ手順</t>
@@ -1738,11 +1469,11 @@
     <rPh sb="23" eb="27">
       <t>ジドウセ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://github.com/nablarch-development-standards/nablarch-development-standards-tools/tree/1.2/%E3%83%90%E3%83%83%E3%83%81%E9%96%8B%E7%99%BA%E8%A3%9C%E5%8A%A9</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ウェブアプリケーションをベースとしたプロジェクトにおいて一部のリクエストを非同期処理したい場合など、ウェブアプリケーションとウェブサービスを併用したい場合が考えられます。そのような場合は、ハンドラ構成の異なるWebフロントコントローラを複数個定義する必要があります。
@@ -1754,15 +1485,15 @@
     <rPh sb="291" eb="293">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/blank_project/setup_blankProject/setup_NablarchBatch_Dbless.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/blank_project/setup_containerBlankProject/setup_ContainerBatch_Dbless.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>RESTfulウェブサービスの責務配置では、アウトプットとしてフォームクラスを利用すると記述していました。このフォームクラスはすべてのプロパティをString型で定義するものとしています。
@@ -1782,7 +1513,7 @@
     <rPh sb="243" eb="245">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>※シェル共通設定.xlsx、ジョブ実行シェルスクリプト自動生成設定.xlsxには変更がありませんので、既存のファイルを流用することができます。</t>
@@ -1795,19 +1526,19 @@
     <rPh sb="59" eb="61">
       <t>リュウヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更内容はNo.11と同じになります。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/libraries/log.html#log-rotation</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u22/doc/application_framework/application_framework/handlers/web/multipart_handler.html#multipart-handler-max-file-count</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>※通常は汎用データフォーマットの特定クラスだけを個別にロガー設定するようなことはないため、影響がある可能性は極めて低いと考えられます。
@@ -1858,35 +1589,19 @@
     <rPh sb="287" eb="288">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2262,7 +1977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -2274,7 +1989,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2362,261 +2077,276 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="37" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2627,30 +2357,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -3638,369 +3344,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -4015,9 +3358,9 @@
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="31" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="31" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -4030,1235 +3373,1235 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:125" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:125" s="9" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="AO3" s="10"/>
-      <c r="DU3" s="11"/>
+    <row r="1" spans="1:125" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:125" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:125" s="6" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="AO3" s="7"/>
+      <c r="DU3" s="8"/>
     </row>
     <row r="4" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="85" t="s">
+      <c r="A4" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="85"/>
+      <c r="K4" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:125" s="12" customFormat="1" ht="252" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:125" s="9" customFormat="1" ht="252" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:125" s="12" customFormat="1" ht="132" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="25">
+      <c r="D7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:125" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="22">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:125" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="25">
+      <c r="D8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:125" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="22">
         <f t="shared" ref="C9:C15" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:125" s="12" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="25">
+      <c r="D9" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:125" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="D10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="M10" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:125" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="25">
+      <c r="N10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="1:125" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:125" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="25">
+      <c r="D11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:125" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="N12" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:125" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="25">
+      <c r="D12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:125" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:125" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="25">
+      <c r="D13" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:125" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="N14" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:125" s="12" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="91">
+      <c r="D14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:125" s="9" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="78">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="91" t="s">
+      <c r="D15" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="91" t="s">
+      <c r="N15" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:125" s="9" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="I15" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="N15" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:125" s="12" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="N16" s="92"/>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="41">
+      <c r="N16" s="79"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="38">
         <f>C15+1</f>
         <v>10</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="41">
+      <c r="D17" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="38">
         <f>C17+1</f>
         <v>11</v>
       </c>
-      <c r="D18" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="70" t="s">
+      <c r="D18" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="25">
+      <c r="G18" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="22">
         <f>C18+1</f>
         <v>12</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="25" t="str">
+      <c r="D20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="22" t="str">
         <f>"変更内容はNo."&amp;C17&amp;"と同じになります。"</f>
         <v>変更内容はNo.10と同じになります。</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="25">
+      <c r="H20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="22">
         <f>C20+1</f>
         <v>13</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="25" t="str">
+      <c r="D22" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="22" t="str">
         <f>"変更内容はNo."&amp;C17&amp;"と同じになります。"</f>
         <v>変更内容はNo.10と同じになります。</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="25">
+      <c r="H22" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="22">
         <f>C22+1</f>
         <v>14</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="25">
+      <c r="D23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="216" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="22">
         <f>C23+1</f>
         <v>15</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="D24" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="O24" s="38"/>
-    </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="38"/>
-    </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="25">
+      <c r="G24" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="35"/>
+    </row>
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A25" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="35"/>
+    </row>
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="22">
         <f>C24+1</f>
         <v>16</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="25" t="str">
+      <c r="D26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="22" t="str">
         <f>"変更内容はNo."&amp;C17&amp;"と同じになります。"</f>
         <v>変更内容はNo.10と同じになります。</v>
       </c>
-      <c r="H26" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="O26" s="38"/>
-    </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A27" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="38"/>
-    </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="25">
+      <c r="H26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="35"/>
+    </row>
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A27" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="35"/>
+    </row>
+    <row r="28" spans="1:15" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="22">
         <f>C26+1</f>
         <v>17</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M28" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="O28" s="38"/>
-    </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="25">
+      <c r="D28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="22">
         <f>C28+1</f>
         <v>18</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="57" t="str">
+      <c r="D29" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="54" t="str">
         <f>"変更内容はNo."&amp;C17&amp;"と同じになります。"</f>
         <v>変更内容はNo.10と同じになります。</v>
       </c>
-      <c r="H29" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M29" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="O29" s="38"/>
-    </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="38"/>
-    </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="25">
+      <c r="H29" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A30" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22">
         <f>C29+1</f>
         <v>19</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="25" t="s">
+      <c r="D31" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="L31" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="N31" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="O31" s="38"/>
-    </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="25">
+      <c r="H31" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="22">
         <f>C31+1</f>
         <v>20</v>
       </c>
-      <c r="D32" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="I32" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="M32" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="N32" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="O32" s="38"/>
-    </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A33" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="38"/>
+      <c r="D32" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A33" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="35"/>
     </row>
     <row r="34" spans="1:15" ht="84" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
-      <c r="B34" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="22">
         <f>C32+1</f>
         <v>21</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M34" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>144</v>
+      <c r="D34" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="156" x14ac:dyDescent="0.15">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="22">
         <f>C34+1</f>
         <v>22</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="25" t="s">
+      <c r="D35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="M35" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>144</v>
+      <c r="N35" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
@@ -5267,7 +4610,7 @@
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="68"/>
+      <c r="B40" s="65"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
@@ -5282,17 +4625,11 @@
     <sortCondition ref="E7:E13"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="G4:G5"/>
@@ -5300,13 +4637,19 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <conditionalFormatting sqref="G33">
     <cfRule type="expression" dxfId="14" priority="19">
       <formula>#REF!="完了"</formula>
@@ -5413,9 +4756,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
@@ -5424,123 +4767,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
+      <c r="A1" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="78"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="75"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="78"/>
-    </row>
-    <row r="12" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="75"/>
+    </row>
+    <row r="12" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{5A7E02C7-9F3D-4A0E-A7C3-DC95D0CC6B79}"/>
   </hyperlinks>
